--- a/biology/Histoire de la zoologie et de la botanique/Henri_Chermezon/Henri_Chermezon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Chermezon/Henri_Chermezon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Chermezon (1885-1939) est un explorateur et botaniste français qui se spécialisa dans la flore tropicale.
 Il collabora régulièrement à la Flore de Madagascar et des Comores avec d'autres botanistes, comme Henri Perrier de La Bâthie ou Jean Henri Humbert.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1910. Recherches anatomiques sur les plantes littorales
 1922. Sur quelques Cypéracées nouvelles de Madagascar. 7 pp.
@@ -549,7 +565,7 @@
 1931. Révision des Cypéracées de Madagascar, 2e partie
 1931a. Synopsis des Cypéracées de Madagascar
 1931b. Colonie de Madagascar et dépendances. Cyperaceae
-Émile Jahandiez et Henri Chermezon. 1939. Le Monde des plantes, in: Le Monde des Plantes - Série V, N° 235[1]</t>
+Émile Jahandiez et Henri Chermezon. 1939. Le Monde des plantes, in: Le Monde des Plantes - Série V, N° 235</t>
         </is>
       </c>
     </row>
